--- a/Projects/PEPSICOUK_SAND/Data/display_template.xlsx
+++ b/Projects/PEPSICOUK_SAND/Data/display_template.xlsx
@@ -11,15 +11,16 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$22</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Sheet1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="116">
   <si>
     <t xml:space="preserve">Display Name</t>
   </si>
@@ -87,6 +88,9 @@
     <t xml:space="preserve">g. HO Agreed Half Pallet</t>
   </si>
   <si>
+    <t xml:space="preserve">g. Half Pallet</t>
+  </si>
+  <si>
     <t xml:space="preserve">h. Tesco Wonzal</t>
   </si>
   <si>
@@ -111,7 +115,7 @@
     <t xml:space="preserve">o. HO Agreed Full Pallet</t>
   </si>
   <si>
-    <t xml:space="preserve">p. Incremental Gondola End </t>
+    <t xml:space="preserve">p. Incremental Gondola End</t>
   </si>
   <si>
     <t xml:space="preserve">r. Tesco goal post display</t>
@@ -515,18 +519,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -698,16 +702,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,10 +719,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -744,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>9</v>
@@ -755,16 +759,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>9</v>
@@ -775,16 +779,16 @@
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>9</v>
@@ -804,7 +808,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
@@ -815,31 +819,30 @@
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
@@ -848,8 +851,9 @@
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
@@ -876,13 +880,13 @@
         <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -896,10 +900,10 @@
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -916,19 +920,19 @@
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
@@ -956,19 +960,19 @@
         <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0.5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,16 +980,16 @@
         <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>9</v>
@@ -996,16 +1000,16 @@
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>0.9</v>
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>9</v>
@@ -1019,16 +1023,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,19 +1040,19 @@
         <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1.5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,19 +1060,19 @@
         <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1082,13 +1086,13 @@
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1119,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -1139,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1159,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
@@ -1185,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>9</v>
@@ -1196,10 +1200,10 @@
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
@@ -1216,16 +1220,16 @@
         <v>45</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>9</v>
@@ -1236,10 +1240,10 @@
         <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>1.5</v>
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>8</v>
@@ -1248,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,16 +1263,16 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,10 +1280,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -1296,19 +1300,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>1.5</v>
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,19 +1320,19 @@
         <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>1.5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>9</v>
@@ -1356,19 +1360,19 @@
         <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3" t="n">
-        <v>0.3</v>
+        <v>13</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,16 +1383,16 @@
         <v>7</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,16 +1403,16 @@
         <v>7</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,19 +1420,19 @@
         <v>55</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,10 +1440,10 @@
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -1456,10 +1460,10 @@
         <v>57</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
@@ -1485,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>9</v>
@@ -1516,16 +1520,16 @@
         <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>0.9</v>
+        <v>13</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>9</v>
@@ -1539,16 +1543,16 @@
         <v>7</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,10 +1560,10 @@
         <v>62</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>0.3</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
@@ -1568,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,13 +1600,13 @@
         <v>64</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
@@ -1636,16 +1640,16 @@
         <v>66</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="3" t="n">
-        <v>0.9</v>
+        <v>13</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>9</v>
@@ -1676,16 +1680,16 @@
         <v>68</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>0.9</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>9</v>
@@ -1736,19 +1740,19 @@
         <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="3" t="n">
-        <v>1.5</v>
+        <v>13</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,7 +1803,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>8</v>
@@ -1859,16 +1863,16 @@
         <v>7</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,16 +1923,16 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>8</v>
@@ -1959,16 +1963,16 @@
         <v>7</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1979,16 +1983,16 @@
         <v>7</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,7 +2003,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>8</v>
@@ -2019,7 +2023,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>8</v>
@@ -2039,16 +2043,16 @@
         <v>7</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,16 +2063,16 @@
         <v>7</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,16 +2083,16 @@
         <v>7</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,13 +2103,13 @@
         <v>7</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>9</v>
@@ -2119,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>9</v>
@@ -2139,13 +2143,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>9</v>
@@ -2159,16 +2163,16 @@
         <v>7</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,16 +2183,16 @@
         <v>7</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2209,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>9</v>
@@ -2219,7 +2223,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>9</v>
@@ -2239,13 +2243,13 @@
         <v>7</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>9</v>
@@ -2259,13 +2263,13 @@
         <v>7</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>9</v>
@@ -2299,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>9</v>
@@ -2316,13 +2320,13 @@
         <v>100</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>9</v>
@@ -2396,16 +2400,16 @@
         <v>104</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>9</v>
@@ -2425,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>9</v>
@@ -2445,7 +2449,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>9</v>
@@ -2465,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>9</v>
@@ -2485,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>9</v>
@@ -2525,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>9</v>
@@ -2556,19 +2560,19 @@
         <v>112</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="3" t="n">
-        <v>1.5</v>
+        <v>13</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,7 +2583,7 @@
         <v>7</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>8</v>
@@ -2599,20 +2603,40 @@
         <v>7</v>
       </c>
       <c r="C104" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="3" t="s">
+      <c r="D105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F22"/>
+  <autoFilter ref="A1:F23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
